--- a/第三章/XlsxWriter/demo1.xlsx
+++ b/第三章/XlsxWriter/demo1.xlsx
@@ -88,10 +88,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>24940</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>88770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -109,7 +109,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1381125" y="762000"/>
-          <a:ext cx="2762250" cy="781050"/>
+          <a:ext cx="3682540" cy="1041270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
